--- a/PRODUTOS/Bazar/Bazar - Casa e construcao.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Casa e construcao.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lamp Superled Ourolux 9w 6500k</t>
+          <t>Prego 08x08 C/50gr Use Util</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,98</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75c688f4-376e-43a7-88e9-96bcc096b31a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896771240805</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lâmpada Led Bivolt Ledvance 9w</t>
+          <t>Massa Epoxi 100gr Use Util</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 21,98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03230f83-5760-431a-b5ed-69ba26e40bb7.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896771281112</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vela Votina Media C/imagem Jaragua</t>
+          <t>Cola Esc Pq 40gr Use Util</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/434e6914-2613-43fe-b2ba-6bb6335d8e14.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d6a1bfd-cc10-41d0-ae93-fd38b62e3ea9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896771250040</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vela Votina Branca Grande Jaragua</t>
+          <t>Cola Silicone 50gr Use Util</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 18,98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dd72e76-3ee8-49c4-9662-eb31a33dc937.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a89f3ba5-495e-4942-9d01-23577774b8a2.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896094592827</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vela Votiva Media Branca Jaragua</t>
+          <t>Cola Amanco 17gr Use Util</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 14,98</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d482bd6f-f8b3-4f81-b698-3d6d4a6a25b6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1070d435-171a-4a7c-b55b-4622c9ca0bcc.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896771250163</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Luva Borracha Lisa Md Use Util</t>
+          <t>Bico De Torneira 3/4x1/2 Pop Use Util</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896771240089</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abridor De Lata/garrafa Pop Use Util</t>
+          <t>Prego 15x15 C/50gr Use Util</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18f5c1cd-eebe-4fda-bef2-a9af6c02ed7a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14dff82d-c83a-4dd7-b1b3-cd2927eb2df1.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896771240867</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fita Crepe 10mts Use Util</t>
+          <t>Sifao Plast Flexivel Use Util</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89bbb4a6-bf71-4f84-aa4f-0fbe2a45562d.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896771260346</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cola Super Bonder 3g</t>
+          <t>Parafuso C/bucha N6 C/4 Use Util</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6aa93c55-e072-46e0-9543-62ea8539f5bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8cbd74a-2b02-4461-815a-cf504e6c5421.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896771240720</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cola Super Bonder Precisão Loctite 5g</t>
+          <t>Gancho C/bucha N8 C/4 Use Util</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48117916-43d6-4198-a602-0547ef99e75a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6df0d41e-562d-4417-b011-6dad240e3c9c.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896771240683</t>
         </is>
       </c>
     </row>
@@ -731,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Luva Borracha Lisa Gd Use Util</t>
+          <t>Luva Borracha Lisa Pq Use Util</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -742,6 +797,11 @@
       <c r="E12" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898390940531</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lamp Superled Ourolux 12w 6500k Biv</t>
+          <t>Ducha Lorenzette Max 220v 5500w</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 99,98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae899a21-cf05-4123-82e6-a2a8716091b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd8ec3c4-5945-4290-a110-bf366eef2889.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896451824806</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ralo P/pia Amer Cromado Use Util</t>
+          <t>Luva Borracha Lisa Gd Use Util</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,98</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/439b870e-56bd-48e0-8ffd-4006cc047121.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7898947137193</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ralo Jap P/lavatorio Use Util</t>
+          <t>Selo P/panela Clock Use Util</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10edaaea-3fc6-4ac6-a86c-37108a2ffede.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8b8bd39-44b0-4fb5-96c7-8a4b84e019d6.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896771221439</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Luva Borracha Lisa Pq Use Util</t>
+          <t>Ralo P/pia Past C/2 Use Util</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 2,93</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896771220968</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vela Aroma Jaragua 140gr Citronela</t>
+          <t>Vela Palito Preta Jaragua N8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b57c4b5e-062b-4be8-83d7-69cd234fe89a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896972700139</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Agulha P/fogao C/2 Use Util</t>
+          <t>Ducha Maxi Banho C/ Cano 220v 5500w</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 98,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cbb0db4a-cbaa-4fd8-973d-c5e6d3954f27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d32aca4-6222-4aa5-ac3b-a41bcef2c03e.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896451825230</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fita Adesiva Larga 45x45m</t>
+          <t>Ducha Bella Ultra 220v 6800w Bc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 16,89</t>
+          <t>R$ 98,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e03d6852-92b6-4a1b-af89-1f848b38020f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a85ba462-8135-419e-a32c-5c08da6adc96.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896451844828</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vela Aroma Jaragua 140gr Alfazema</t>
+          <t>Cano Branco P/ Chuv Monocano</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6692cc22-165f-4b31-ba25-916fe4c38afc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3051eb-01c7-4492-b906-401f152b66bb.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896451842152</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ralo Jap P/valvula Amer Use Util</t>
+          <t>Tomada Femea 2p+t</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/823edf75-a780-4fb4-889a-f88d0d29bb21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c3ec633-2ef1-47c8-b517-3d6aeb758563.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896771211362</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vela Palito Azul Jaragua N8</t>
+          <t>Tampa Para Pia Com 2un</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6baf0916-af00-45dd-8278-e9e0c60b9729.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024a53be-224f-4344-b742-94667cec2a7d.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896771221262</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vela Palito Vermelho Jaragua N8</t>
+          <t>Plugue Macho 2p+t</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c6124cd-4498-4c66-9c1e-15cfa1f87939.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a3d2115-e45d-4d6e-a0c3-0f6278733b60.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896771211300</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Abridor De Garrafas E Latas Inox Un</t>
+          <t>Fita Adesiva Larga 45x45m</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,89</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28bb97cc-d173-456f-adc6-6d8f7f220b66.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e03d6852-92b6-4a1b-af89-1f848b38020f.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896771270635</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vela Palito Preta Jaragua N8</t>
+          <t>Luva Borracha Lisa Md Use Util</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7898947137193</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vela Palito Amarela Jaragua N8</t>
+          <t>Triturador De Alho Use Util</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f848c83-40c6-4317-946f-162836490aa3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8f86bc4-78bd-4d25-a56e-10512f8963ca.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896771220791</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cola Esc Pq 40gr Use Util</t>
+          <t>Saca Rolha Cabo Plastico 10,5cm Un</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 5,98</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d6a1bfd-cc10-41d0-ae93-fd38b62e3ea9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba0296ae-dc0c-40a9-9dde-466298fe53aa.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7898297174787</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Vela Palito Rosa Jaragua N8</t>
+          <t>Abridor De Garrafas E Latas Inox Un</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4778fa8b-041a-4346-bb62-8d5c76655861.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/28bb97cc-d173-456f-adc6-6d8f7f220b66.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7899701804306</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Veda Rosca 12mmx5mts Use Util</t>
+          <t>Lamp Superled Ourolux 12w 6500k Biv</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df90ae05-af65-4b4d-8012-c58ee7a74159.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae899a21-cf05-4123-82e6-a2a8716091b3.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898324006166</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vela Aroma Jaragua 140gr Morango</t>
+          <t>Lamp Superled Ourolux 9w 6500k</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae33ff5f-c97f-4c94-a5b7-8102648a8ed5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75c688f4-376e-43a7-88e9-96bcc096b31a.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7899771500153</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Saca Rolha Cabo Plas Use Util</t>
+          <t>Fita Crepe 10mts Use Util</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 6,98</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ac2cb3a-968d-42e4-be01-5c1970efb8cc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89bbb4a6-bf71-4f84-aa4f-0fbe2a45562d.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896771270642</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ralo P/pia Past C/2 Use Util</t>
+          <t>Vela Palito Rosa Jaragua N8</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 2,93</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4778fa8b-041a-4346-bb62-8d5c76655861.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896972700108</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fita Isolante 5m Especial Use Util</t>
+          <t>Lampada Gelad/fogao 127v Use Util</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,49</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aac9eec-cdc2-498e-9c41-a091b53b0401.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e79f3a4d-978f-4f20-821f-6b83e8acd302.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896771211140</t>
         </is>
       </c>
     </row>
@@ -1338,6 +1503,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23428aab-216e-461e-ad6f-5ed2822d714b.jpg</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896771210457</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Triturador De Alho Use Util</t>
+          <t>Fita Isolante 5m Especial Use Util</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8f86bc4-78bd-4d25-a56e-10512f8963ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aac9eec-cdc2-498e-9c41-a091b53b0401.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896771210457</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Arejador P/torneira Japo Use Util</t>
+          <t>Extensao 3m C/nbr M.novo 2p+t Use Util</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 46,98</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a50d652-9385-476a-93ed-c78e5b9ce783.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896771210495</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Torneira P/filtro Aut Use Util</t>
+          <t>Vela Aroma Jaragua 140gr Morango</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcc8e2ad-bc2b-468a-a054-f20f1b1413a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae33ff5f-c97f-4c94-a5b7-8102648a8ed5.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896972700665</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tampa P/tanque 1 1/2 C/2 Use Util</t>
+          <t>Vela Aroma Jaragua 140gr Citronela</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 3,89</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa7437c1-3bbb-40ef-91ee-609b23c28bf3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b57c4b5e-062b-4be8-83d7-69cd234fe89a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896972700658</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Parafuso C/bucha N6 C/4 Use Util</t>
+          <t>Vela Aroma Jaragua 140gr Alfazema</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8cbd74a-2b02-4461-815a-cf504e6c5421.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6692cc22-165f-4b31-ba25-916fe4c38afc.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896972700672</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extensao 3m C/nbr M.novo 2p+t Use Util</t>
+          <t>Vela Palito Vermelho Jaragua N8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 46,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c6124cd-4498-4c66-9c1e-15cfa1f87939.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896972700092</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Selo P/panela Clock Use Util</t>
+          <t>Vela Palito Azul Jaragua N8</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8b8bd39-44b0-4fb5-96c7-8a4b84e019d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6baf0916-af00-45dd-8278-e9e0c60b9729.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896972700115</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Prego 15x15 C/50gr Use Util</t>
+          <t>Vela Palito Amarela Jaragua N8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 5,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14dff82d-c83a-4dd7-b1b3-cd2927eb2df1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f848c83-40c6-4317-946f-162836490aa3.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896972700085</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cola Amanco 17gr Use Util</t>
+          <t>Vela Votina Branca Grande Jaragua</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1070d435-171a-4a7c-b55b-4622c9ca0bcc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dd72e76-3ee8-49c4-9662-eb31a33dc937.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896972700573</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cola Silicone 50gr Use Util</t>
+          <t>Vela Votina Media C/imagem Jaragua</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 18,98</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a89f3ba5-495e-4942-9d01-23577774b8a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/434e6914-2613-43fe-b2ba-6bb6335d8e14.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896972700597</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lampada Gelad/fogao 127v Use Util</t>
+          <t>Vela Votiva Media Branca Jaragua</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 13,49</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e79f3a4d-978f-4f20-821f-6b83e8acd302.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d482bd6f-f8b3-4f81-b698-3d6d4a6a25b6.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896972700504</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pino Porta Lamp Especial Use Util</t>
+          <t>Cola Super Bonder Precisão Loctite 5g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 14,89</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/253882d3-fdc4-4be2-bdea-46293cdf3d20.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48117916-43d6-4198-a602-0547ef99e75a.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891200017799</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Resistencia Corona 220v Use Util</t>
+          <t>Cola Super Bonder 3g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88082a63-f7bc-4944-8c56-e379e7be5574.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6aa93c55-e072-46e0-9543-62ea8539f5bb.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891200017324</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Abridor 3 Em 1 Use Util</t>
+          <t>Ralo P/pia Amer Cromado Use Util</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4b72db5-1af2-4d6a-aaa1-1ee2a3cb1074.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/439b870e-56bd-48e0-8ffd-4006cc047121.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896771220968</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sifao Plast Flexivel Use Util</t>
+          <t>Ralo Jap P/lavatorio Use Util</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/10edaaea-3fc6-4ac6-a86c-37108a2ffede.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896771220999</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Saca Rolha Cabo Plastico 10,5cm Un</t>
+          <t>Torneira P/filtro Aut Use Util</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba0296ae-dc0c-40a9-9dde-466298fe53aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bcc8e2ad-bc2b-468a-a054-f20f1b1413a3.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896771221323</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tampa Para Pia Com 2un</t>
+          <t>Torneira P/bebedouro Use Util</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 12,98</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/024a53be-224f-4344-b742-94667cec2a7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f19a12f-a78c-4b07-982e-b81db6769dfd.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896771221347</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pino 03 Saidas 2p+t Use Util</t>
+          <t>Tampa P/tanque 1 1/2 C/2 Use Util</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 3,89</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc1f9ae7-5bb1-4a9b-91eb-4deed6ecd47a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa7437c1-3bbb-40ef-91ee-609b23c28bf3.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896771221286</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Torneira P/bebedouro Use Util</t>
+          <t>Regulador De Gas Pop Comp Use Util</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 12,98</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f19a12f-a78c-4b07-982e-b81db6769dfd.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896771221095</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gancho C/bucha N8 C/4 Use Util</t>
+          <t>Arejador P/torneira Japo Use Util</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6df0d41e-562d-4417-b011-6dad240e3c9c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a50d652-9385-476a-93ed-c78e5b9ce783.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896771220081</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bico De Torneira 3/4x1/2 Pop Use Util</t>
+          <t>Pino 03 Saidas 2p+t Use Util</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc1f9ae7-5bb1-4a9b-91eb-4deed6ecd47a.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896771211959</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Adesivo De Contato 30gr Use Util</t>
+          <t>Abridor De Lata/garrafa Pop Use Util</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2bdcc7cd-3e5f-447b-ac52-11f7fd61cad3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18f5c1cd-eebe-4fda-bef2-a9af6c02ed7a.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896771220005</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cano Branco P/ Chuv Monocano</t>
+          <t>Abridor 3 Em 1 Use Util</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3051eb-01c7-4492-b906-401f152b66bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4b72db5-1af2-4d6a-aaa1-1ee2a3cb1074.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896771221118</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ducha Bella Ultra 220v 6800w Bc</t>
+          <t>Resistencia Corona 220v Use Util</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 98,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a85ba462-8135-419e-a32c-5c08da6adc96.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88082a63-f7bc-4944-8c56-e379e7be5574.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896771211447</t>
         </is>
       </c>
     </row>
@@ -2000,206 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ducha Maxi Banho C/ Cano 220v 5500w</t>
+          <t>Pino Porta Lamp Especial Use Util</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 98,99</t>
+          <t>R$ 14,89</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d32aca4-6222-4aa5-ac3b-a41bcef2c03e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Ducha Lorenzette Max 220v 5500w</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 99,98</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd8ec3c4-5945-4290-a110-bf366eef2889.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Regulador De Gas Pop Comp Use Util</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Prego 08x08 C/50gr Use Util</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>R$ 6,98</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Vedante Pvc 3/4 C/4 Use Util</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>R$ 3,98</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f723caa0-9510-4263-ab1d-af4ff987c73a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Massa Epoxi 100gr Use Util</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>R$ 21,98</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Plugue Macho 2p+t</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>R$ 14,98</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a3d2115-e45d-4d6e-a0c3-0f6278733b60.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Casa e construcao</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Tomada Femea 2p+t</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>R$ 14,98</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c3ec633-2ef1-47c8-b517-3d6aeb758563.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/253882d3-fdc4-4be2-bdea-46293cdf3d20.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896771211423</t>
         </is>
       </c>
     </row>
